--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>908533.1482465026</v>
+        <v>909317.2941845311</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.0201173812374</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,58 +673,58 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H2" t="n">
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="4">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>205.5178444382804</v>
@@ -1023,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>158.2881417686508</v>
       </c>
       <c r="V6" t="n">
-        <v>119.1003526907495</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>107.2644082870342</v>
       </c>
       <c r="C9" t="n">
-        <v>72.55971260501174</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1412,31 +1414,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="U11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="V11" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>29.90684812882265</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,70 +1612,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>151.9979962458027</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1692,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1901,7 +1903,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1980,10 +1982,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9845033927267</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>12.90925672556489</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>51.45698669249091</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2236,73 +2238,73 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,16 +2399,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2454,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>172.5764158182482</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>37.10634673358869</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>93.14621307593384</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>96.52468151912586</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2734,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,17 +2791,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200.3360962888296</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>112.2956661798583</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3162,19 +3164,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="34">
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,23 +3265,23 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>58.1958364687712</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>179.893889941384</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3433,46 +3435,46 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>33.51003907654569</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>170.6554636898984</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>205.5178444382804</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3825,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>105.3690580549764</v>
+        <v>153.2418220378557</v>
       </c>
     </row>
     <row r="43">
@@ -3910,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.62348452982235</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>138.9350621022359</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4334,13 +4336,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4416,7 +4418,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4443,13 +4445,13 @@
         <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>619.8847831118876</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W3" t="n">
-        <v>412.2910008509983</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y3" t="n">
         <v>16.44142755506243</v>
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4571,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4653,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4671,19 +4673,19 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="V6" t="n">
-        <v>600.5984617496947</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="W6" t="n">
-        <v>393.0046794888054</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="X6" t="n">
         <v>185.4108972279162</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="D8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="E8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="G8" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="D8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="E8" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4841,13 +4843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="C9" t="n">
-        <v>165.3758372163137</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
@@ -4923,10 +4925,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y9" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
         <v>16.44142755506243</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>137.7041268545529</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C12" t="n">
-        <v>137.7041268545529</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>137.7041268545529</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M12" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N12" t="n">
-        <v>752.1869855945927</v>
-      </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X12" t="n">
-        <v>137.7041268545529</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y12" t="n">
-        <v>137.7041268545529</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
         <v>16.44142755506243</v>
@@ -5230,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,13 +5287,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5306,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>443.6989813239244</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X14" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C15" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D15" t="n">
-        <v>460.9442659510175</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E15" t="n">
-        <v>301.706810945562</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F15" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
         <v>16.44142755506243</v>
@@ -5358,22 +5360,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5388,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y15" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
         <v>16.44142755506243</v>
@@ -5461,25 +5463,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5534,19 +5536,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
         <v>31.35113235729608</v>
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5600,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V18" t="n">
-        <v>109.5807722530562</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5710,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5729,7 +5731,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>526.7184526376595</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C21" t="n">
-        <v>526.7184526376595</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="D21" t="n">
-        <v>377.7840429764083</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="E21" t="n">
-        <v>218.5465879709528</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>72.01202999783774</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>72.01202999783774</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>72.01202999783774</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>526.7184526376595</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="22">
@@ -5950,10 +5952,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6104,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>554.5854353412691</v>
       </c>
       <c r="X24" t="n">
-        <v>964.0571555106362</v>
+        <v>346.7339351357363</v>
       </c>
       <c r="Y24" t="n">
-        <v>816.6559320512295</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>961.308225475175</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>116.7808214123601</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C27" t="n">
-        <v>116.7808214123601</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D27" t="n">
-        <v>116.7808214123601</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="E27" t="n">
-        <v>116.7808214123601</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F27" t="n">
-        <v>116.7808214123601</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>116.7808214123601</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>116.7808214123601</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.7808214123601</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K28" t="n">
         <v>829.5248650203655</v>
@@ -6400,34 +6402,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>946.3215033461793</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,22 +6484,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.04605772994853</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="N30" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N30" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>55.04605772994853</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X30" t="n">
-        <v>55.04605772994853</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y30" t="n">
-        <v>55.04605772994853</v>
+        <v>109.8523314442283</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
         <v>829.5248650203655</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V32" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="W32" t="n">
-        <v>233.7108255783361</v>
-      </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6786,13 +6788,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6812,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y33" t="n">
-        <v>761.8705608694022</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D35" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E35" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6968,13 +6970,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
         <v>720.6083788665362</v>
@@ -6990,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>237.3022713164472</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>78.06481631099172</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7023,7 +7025,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>360.2295980564601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>178.5185981156682</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>178.5185981156682</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>191.8604928473403</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>53.12966742995584</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>399.5118995681682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>191.6603993626354</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
         <v>224.0352098159517</v>
@@ -7418,13 +7420,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7439,22 +7441,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
         <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.8288664974407</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C42" t="n">
-        <v>165.3758372163137</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7527,13 +7529,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.0442035175087</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
         <v>224.0352098159517</v>
@@ -7649,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.7410566979059</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="C45" t="n">
-        <v>106.7410566979059</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
         <v>16.44142755506243</v>
@@ -7728,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>211.6833797714288</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>415.1460457653264</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>580.5634017380922</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>372.969619477203</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>372.969619477203</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>372.969619477203</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>372.969619477203</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>165.3758372163137</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7993,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8064,10 +8066,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,16 +8461,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8781,10 +8783,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>213.1865395540696</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9489,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9959,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10191,19 +10193,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10434,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10443,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11154,7 +11156,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>335.768472927719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>361.5735414379376</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22589,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472917</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.30946265260823</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22841,7 +22843,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>143.7231242791326</v>
@@ -22911,22 +22913,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>67.65324031232404</v>
       </c>
       <c r="V6" t="n">
-        <v>113.7002344586758</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23081,10 +23083,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>59.26877536283311</v>
       </c>
       <c r="C9" t="n">
-        <v>100.148786383304</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23163,7 +23165,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23300,31 +23302,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>188.7109832972317</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>82.32859610767382</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23470,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,7 +23500,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>54.02502153750649</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.53518740406463</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23580,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23668,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23701,7 +23703,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23789,7 +23791,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>227.3726215175137</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23868,10 +23870,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>84.81608375669853</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>144.7358237298361</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.93964615892417</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24342,16 +24344,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>79.11856734267138</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24385,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>249.4166516030023</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24461,7 +24463,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>221.2863534910952</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24508,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>64.4988673794671</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>40.81883564408477</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24622,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>138.0478248410352</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,13 +24776,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>22.56996778582105</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>182.397745374651</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.23751747000904</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25050,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="34">
@@ -25126,10 +25128,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>86.87337592461267</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25281,16 +25283,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>52.90669720804129</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>78.72540515995078</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>35.02723208740596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>133.9569576774867</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25713,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>100.313637722328</v>
+        <v>52.44087373944865</v>
       </c>
     </row>
     <row r="43">
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>74.90969912004499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>32.7481090016019</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,7 +26003,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410373.9254390073</v>
+        <v>410373.9254390074</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410373.9254390073</v>
+        <v>410373.9254390072</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410373.9254390072</v>
+        <v>410373.9254390073</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432255.9283617516</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="13">
@@ -26314,10 +26316,10 @@
         <v>173533.4060184247</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
       <c r="D2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184248</v>
@@ -26326,7 +26328,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="G2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="H2" t="n">
         <v>182776.7397844656</v>
@@ -26335,13 +26337,13 @@
         <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844655</v>
       </c>
       <c r="K2" t="n">
         <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="M2" t="n">
         <v>182776.7397844656</v>
@@ -26424,7 +26426,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="E4" t="n">
-        <v>31909.39659410429</v>
+        <v>31909.3965941043</v>
       </c>
       <c r="F4" t="n">
         <v>31909.3965941043</v>
@@ -26522,10 +26524,10 @@
         <v>26627.1679007831</v>
       </c>
       <c r="C6" t="n">
-        <v>95500.92448247301</v>
+        <v>95500.92448247297</v>
       </c>
       <c r="D6" t="n">
-        <v>95500.924482473</v>
+        <v>95500.92448247297</v>
       </c>
       <c r="E6" t="n">
         <v>129128.524482473</v>
@@ -26540,19 +26542,19 @@
         <v>134473.2242364462</v>
       </c>
       <c r="I6" t="n">
-        <v>134473.2242364463</v>
+        <v>134473.2242364462</v>
       </c>
       <c r="J6" t="n">
-        <v>80700.71334623679</v>
+        <v>80700.71334623673</v>
       </c>
       <c r="K6" t="n">
         <v>134473.2242364463</v>
       </c>
       <c r="L6" t="n">
-        <v>134473.2242364463</v>
+        <v>134473.2242364462</v>
       </c>
       <c r="M6" t="n">
-        <v>134473.2242364463</v>
+        <v>134473.2242364462</v>
       </c>
       <c r="N6" t="n">
         <v>134473.2242364462</v>
@@ -34702,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34713,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34784,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.4947814597977008</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,16 +35181,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>171.5974510766996</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35492,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35501,10 +35503,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>70.5902951096252</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37163,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N36" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37874,7 +37876,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909317.2941845311</v>
+        <v>810938.4499884249</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>14829673.35797656</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4871138.980445131</v>
+        <v>6621935.740028528</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.16030022554292</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>81.91466968018199</v>
+      </c>
+      <c r="X3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.5178444382804</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.64939492479343</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>158.2881417686508</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.2644082870342</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>165.4301600118072</v>
       </c>
     </row>
     <row r="10">
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,64 +1369,64 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>83.82366897073301</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,43 +1548,43 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="F14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.650978857943354</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1782,52 +1782,52 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>100.3796369526212</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>46.05309605239223</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>104.7383832473596</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>220.2131257424249</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>12.90925672556489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>126.9470391372502</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="W24" t="n">
-        <v>172.5764158182482</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>1.809496073036132</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,25 +2639,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>93.14621307593384</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>169.4127415268062</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>89.66547645067541</v>
+        <v>11.53661047338777</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.40726547353844</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,20 +3271,20 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>58.1958364687712</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>33.51003907654569</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>170.7457531160715</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,64 +3660,64 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,70 +3745,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="Y42" t="n">
-        <v>153.2418220378557</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,67 +3985,67 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,25 +4106,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>138.9350621022359</v>
       </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4360,22 +4360,22 @@
         <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="U2" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="V2" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="W2" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="X2" t="n">
+        <v>660.5968149695918</v>
+      </c>
+      <c r="Y2" t="n">
         <v>453.0030327087026</v>
-      </c>
-      <c r="U2" t="n">
-        <v>453.0030327087026</v>
-      </c>
-      <c r="V2" t="n">
-        <v>453.0030327087026</v>
-      </c>
-      <c r="W2" t="n">
-        <v>245.4092504478133</v>
-      </c>
-      <c r="X2" t="n">
-        <v>37.81546818692397</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4418,16 +4418,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4439,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>224.0352098159517</v>
+        <v>739.3292871670792</v>
       </c>
       <c r="X3" t="n">
-        <v>224.0352098159517</v>
+        <v>531.7355049061899</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>324.1417226453007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4573,13 +4573,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>244.0756638309303</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>69.62263454980328</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>185.4108972279162</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V6" t="n">
-        <v>185.4108972279162</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W6" t="n">
-        <v>185.4108972279162</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>639.2227743377304</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>639.2227743377304</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4813,10 +4813,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>822.0713777531216</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y8" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>506.1297083336119</v>
+        <v>553.8006765769092</v>
       </c>
       <c r="C9" t="n">
-        <v>506.1297083336119</v>
+        <v>379.3476472957821</v>
       </c>
       <c r="D9" t="n">
-        <v>506.1297083336119</v>
+        <v>379.3476472957821</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>553.8006765769092</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5050,10 +5050,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>822.0713777531216</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>238.668476211275</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C12" t="n">
-        <v>64.21544693014803</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>247.6463582258876</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>101.1118002527726</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>101.1118002527726</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5123,19 +5123,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O12" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P12" t="n">
         <v>822.0713777531216</v>
@@ -5156,7 +5156,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W12" t="n">
         <v>614.4775954922324</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="C14" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="D14" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="E14" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F14" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F14" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5281,49 +5281,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>440.0245662111054</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>280.7871112056499</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>134.2525532325348</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>134.2525532325348</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>20.88341764011416</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>29.03990215807806</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5390,19 +5390,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V15" t="n">
         <v>614.4775954922324</v>
       </c>
-      <c r="V15" t="n">
-        <v>406.8838132313431</v>
-      </c>
       <c r="W15" t="n">
-        <v>199.2900309704538</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U18" t="n">
-        <v>360.2295980564601</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V18" t="n">
-        <v>125.0774898247174</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="19">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>728.6161971483371</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V20" t="n">
-        <v>485.167420504237</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.2549444941228</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C21" t="n">
-        <v>521.2549444941228</v>
+        <v>453.2824885506521</v>
       </c>
       <c r="D21" t="n">
-        <v>521.2549444941228</v>
+        <v>453.2824885506521</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>294.0450335451966</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>147.5104755720816</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y21" t="n">
-        <v>689.4702815141908</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="22">
@@ -5943,13 +5943,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>487.8483949674443</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W24" t="n">
-        <v>554.5854353412691</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>346.7339351357363</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>346.7339351357363</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T26" t="n">
-        <v>962.2293816994886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U26" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V26" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>512.7568786610034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C27" t="n">
-        <v>512.7568786610034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D27" t="n">
-        <v>512.7568786610034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>418.6697947459187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
         <v>894.6625969973069</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>619.5158296210968</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>376.0670529769968</v>
       </c>
       <c r="X27" t="n">
-        <v>512.7568786610034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.7568786610034</v>
+        <v>168.215552771464</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>946.3215033461793</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6490,22 +6490,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
         <v>506.1786963984129</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>109.8523314442283</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C30" t="n">
-        <v>109.8523314442283</v>
+        <v>419.2021945682071</v>
       </c>
       <c r="D30" t="n">
-        <v>109.8523314442283</v>
+        <v>419.2021945682071</v>
       </c>
       <c r="E30" t="n">
-        <v>109.8523314442283</v>
+        <v>259.9647395627516</v>
       </c>
       <c r="F30" t="n">
-        <v>109.8523314442283</v>
+        <v>259.9647395627516</v>
       </c>
       <c r="G30" t="n">
-        <v>109.8523314442283</v>
+        <v>121.2339141453671</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>109.8523314442283</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>109.8523314442283</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>109.8523314442283</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6739,10 +6739,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6785,19 +6785,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U33" t="n">
-        <v>533.6469426057913</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V33" t="n">
-        <v>298.4948343740486</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W33" t="n">
-        <v>55.04605772994853</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X33" t="n">
-        <v>55.04605772994853</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>237.3022713164472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>78.06481631099172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>728.9050472788936</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7122,16 +7122,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7153,13 +7153,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F38" t="n">
         <v>506.1786963984129</v>
@@ -7198,7 +7198,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
         <v>749.627473042513</v>
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>191.8604928473403</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>53.12966742995584</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4543050195419</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>690.4171683705204</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>462.1935501069094</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>224.0352098159517</v>
@@ -7402,7 +7402,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7414,49 +7414,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W41" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>499.0663215028962</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>324.6132922217692</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
         <v>16.44142755506243</v>
@@ -7493,22 +7493,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W42" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X42" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>667.2816585229643</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>406.8838132313431</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="45">
@@ -7733,7 +7733,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
         <v>345.2616536067974</v>
@@ -7754,13 +7754,13 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="T45" t="n">
+        <v>720.9018483060073</v>
+      </c>
+      <c r="U45" t="n">
         <v>580.5634017380922</v>
-      </c>
-      <c r="T45" t="n">
-        <v>580.5634017380922</v>
-      </c>
-      <c r="U45" t="n">
-        <v>372.969619477203</v>
       </c>
       <c r="V45" t="n">
         <v>372.969619477203</v>
@@ -7769,7 +7769,7 @@
         <v>372.969619477203</v>
       </c>
       <c r="X45" t="n">
-        <v>372.969619477203</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="Y45" t="n">
         <v>165.3758372163137</v>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8230,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8546,13 +8546,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,13 +8698,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>339.3481270698632</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>401.9436843039723</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>150.567170896597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -9491,7 +9491,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,10 +9965,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10208,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10922,7 +10922,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>152.8659767558044</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5735414379376</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>46.42735402472917</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>67.65324031232404</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22983,34 +22983,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.26877536283311</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23220,34 +23220,34 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>28.41177526576345</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23497,19 +23497,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>85.74565399347172</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23630,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>24.75286782224003</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>227.3726215175137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23819,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>111.5919844030087</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>146.95659991356</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23989,7 +23989,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24031,7 +24031,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>129.0278429749881</v>
+        <v>224.2920824164539</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>144.7358237298361</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>10.39647802596043</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24107,7 +24107,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,7 +24293,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24341,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>70.26853576158751</v>
       </c>
       <c r="W24" t="n">
-        <v>79.11856734267138</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24490,25 +24490,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2863534910952</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>139.0167266006028</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,25 +24527,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>64.4988673794671</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,7 +24581,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>63.3878456226191</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24730,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>22.56996778582105</v>
+        <v>100.6988337631087</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24809,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,10 +24818,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>157.4457150350269</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25049,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>74.94203846847478</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>170.2754303037659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,19 +25159,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>86.87337592461267</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25438,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>146.6038018839531</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>78.72540515995078</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0.9374179877663096</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>183.6536234539903</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>19.39975207878135</v>
       </c>
       <c r="Y42" t="n">
-        <v>52.44087373944865</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,16 +25873,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,19 +25921,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25994,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>32.7481090016019</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>87.0063199787389</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410373.9254390074</v>
+        <v>1017005.708872312</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410373.9254390072</v>
+        <v>1017005.708872312</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410373.9254390073</v>
+        <v>1017005.708872312</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432255.9283617518</v>
+        <v>432255.9283617517</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617516</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432255.9283617518</v>
+        <v>432255.9283617517</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410373.9254390073</v>
+        <v>410373.9254390072</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>173533.4060184247</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
         <v>173533.4060184248</v>
@@ -26328,7 +26328,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="G2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="H2" t="n">
         <v>182776.7397844656</v>
@@ -26337,7 +26337,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="J2" t="n">
-        <v>182776.7397844655</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="K2" t="n">
         <v>182776.7397844656</v>
@@ -26352,7 +26352,7 @@
         <v>182776.7397844656</v>
       </c>
       <c r="O2" t="n">
-        <v>173533.4060184248</v>
+        <v>173533.4060184247</v>
       </c>
       <c r="P2" t="n">
         <v>173533.4060184248</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31909.3965941043</v>
+        <v>320447.2707415523</v>
       </c>
       <c r="C4" t="n">
-        <v>31909.3965941043</v>
+        <v>320447.2707415523</v>
       </c>
       <c r="D4" t="n">
-        <v>31909.3965941043</v>
+        <v>320447.2707415523</v>
       </c>
       <c r="E4" t="n">
         <v>31909.3965941043</v>
@@ -26432,7 +26432,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26627.1679007831</v>
+        <v>16128.86116026637</v>
       </c>
       <c r="C6" t="n">
-        <v>95500.92448247297</v>
+        <v>85002.61774195611</v>
       </c>
       <c r="D6" t="n">
-        <v>95500.92448247297</v>
+        <v>85002.617741956</v>
       </c>
       <c r="E6" t="n">
-        <v>129128.524482473</v>
+        <v>116490.3623276125</v>
       </c>
       <c r="F6" t="n">
-        <v>129128.524482473</v>
+        <v>116490.3623276125</v>
       </c>
       <c r="G6" t="n">
-        <v>124744.1812622792</v>
+        <v>112526.1706422386</v>
       </c>
       <c r="H6" t="n">
-        <v>134473.2242364462</v>
+        <v>122255.2136164058</v>
       </c>
       <c r="I6" t="n">
-        <v>134473.2242364462</v>
+        <v>122255.2136164058</v>
       </c>
       <c r="J6" t="n">
-        <v>80700.71334623673</v>
+        <v>68482.70272619638</v>
       </c>
       <c r="K6" t="n">
-        <v>134473.2242364463</v>
+        <v>122255.2136164058</v>
       </c>
       <c r="L6" t="n">
-        <v>134473.2242364462</v>
+        <v>122255.2136164058</v>
       </c>
       <c r="M6" t="n">
-        <v>134473.2242364462</v>
+        <v>122255.2136164057</v>
       </c>
       <c r="N6" t="n">
-        <v>134473.2242364462</v>
+        <v>122255.2136164058</v>
       </c>
       <c r="O6" t="n">
-        <v>129128.524482473</v>
+        <v>116490.3623276125</v>
       </c>
       <c r="P6" t="n">
-        <v>129128.524482473</v>
+        <v>116490.3623276125</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>190.1837696111162</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>169.7803134807376</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>30.54577751176703</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,25 +27700,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>59.58604931170303</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>190.1837696111163</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>40.25253576549719</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7949443340801</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34950,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35664,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,10 +36685,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36928,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37797,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>21.52426467247106</v>
